--- a/Code/Results/Cases/Case_2_240/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_240/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.87963035532539</v>
+        <v>17.59209660795975</v>
       </c>
       <c r="C2">
-        <v>16.28481098789882</v>
+        <v>10.36407734381725</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.6600752644399</v>
+        <v>13.68713785086328</v>
       </c>
       <c r="F2">
-        <v>64.02514607514094</v>
+        <v>54.99448763524786</v>
       </c>
       <c r="G2">
-        <v>2.076648999980548</v>
+        <v>3.697181159449026</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.38656402603412</v>
+        <v>10.80274813932115</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>9.71434170838952</v>
+        <v>17.01738085309923</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.1589949837891</v>
+        <v>17.19496184776007</v>
       </c>
       <c r="C3">
-        <v>15.03882157923262</v>
+        <v>9.982430739905219</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.86495960707953</v>
+        <v>13.59135228416763</v>
       </c>
       <c r="F3">
-        <v>60.319301104475</v>
+        <v>53.9563368386496</v>
       </c>
       <c r="G3">
-        <v>2.092544012175344</v>
+        <v>3.702172325133112</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.966644232773831</v>
+        <v>10.69557174660276</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>8.975148929989683</v>
+        <v>17.16592048138934</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.06036741375159</v>
+        <v>16.95447055075539</v>
       </c>
       <c r="C4">
-        <v>14.24380933808547</v>
+        <v>9.746123393369515</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.36591755516017</v>
+        <v>13.53554460703709</v>
       </c>
       <c r="F4">
-        <v>57.99763765669697</v>
+        <v>53.31651361752625</v>
       </c>
       <c r="G4">
-        <v>2.102410957426235</v>
+        <v>3.705388615612043</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.707807586173351</v>
+        <v>10.62938246835669</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.505554827846437</v>
+        <v>17.26428446602803</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.60171848106891</v>
+        <v>16.85748143073207</v>
       </c>
       <c r="C5">
-        <v>13.91197222435796</v>
+        <v>9.649526498575762</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.1597769489687</v>
+        <v>13.5135670475943</v>
       </c>
       <c r="F5">
-        <v>57.03990467855776</v>
+        <v>53.05544196961425</v>
       </c>
       <c r="G5">
-        <v>2.106466050141394</v>
+        <v>3.706737605244185</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.602034368117012</v>
+        <v>10.60232318111156</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.309983473900473</v>
+        <v>17.30616457580034</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.52488985312648</v>
+        <v>16.84144264560834</v>
       </c>
       <c r="C6">
-        <v>13.85638724964994</v>
+        <v>9.633474600509203</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.12537936156768</v>
+        <v>13.50996409482794</v>
       </c>
       <c r="F6">
-        <v>56.88017591046939</v>
+        <v>53.01207854955774</v>
       </c>
       <c r="G6">
-        <v>2.107141658550912</v>
+        <v>3.706963923966562</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.584452156278342</v>
+        <v>10.59782505100208</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.277247971485782</v>
+        <v>17.31322708296837</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.05422666368314</v>
+        <v>16.95315819380339</v>
       </c>
       <c r="C7">
-        <v>14.23936630616562</v>
+        <v>9.744821596261161</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.36314874006835</v>
+        <v>13.53524510386724</v>
       </c>
       <c r="F7">
-        <v>57.98476826664847</v>
+        <v>53.3129937335879</v>
       </c>
       <c r="G7">
-        <v>2.102465498259745</v>
+        <v>3.705406653139903</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.706382326822682</v>
+        <v>10.62901787558664</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.502934636629531</v>
+        <v>17.26484200961728</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.29487213270641</v>
+        <v>17.45457075420742</v>
       </c>
       <c r="C8">
-        <v>15.8612031934118</v>
+        <v>10.23300881231216</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.38811909172262</v>
+        <v>13.65349307375761</v>
       </c>
       <c r="F8">
-        <v>62.75688677974153</v>
+        <v>54.63718705122275</v>
       </c>
       <c r="G8">
-        <v>2.082111961101544</v>
+        <v>3.698870738104855</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.24195088045823</v>
+        <v>10.76587890841827</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>9.462570261534434</v>
+        <v>17.06710849821127</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.37390441020055</v>
+        <v>18.45706258157559</v>
       </c>
       <c r="C9">
-        <v>18.82121349533787</v>
+        <v>11.16682406244751</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.38851539614793</v>
+        <v>13.9087626524597</v>
       </c>
       <c r="F9">
-        <v>71.76316206470294</v>
+        <v>57.20360995035947</v>
       </c>
       <c r="G9">
-        <v>2.042669652156458</v>
+        <v>3.687249211059044</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.28762342285091</v>
+        <v>11.03080401934798</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>11.23285143691205</v>
+        <v>16.73637625318306</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.21278731617497</v>
+        <v>19.19576822495313</v>
       </c>
       <c r="C10">
-        <v>20.89082918043024</v>
+        <v>11.82920862800333</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.86358881881863</v>
+        <v>14.1098617466245</v>
       </c>
       <c r="F10">
-        <v>78.21077217517995</v>
+        <v>59.05603789624417</v>
       </c>
       <c r="G10">
-        <v>2.013340654136372</v>
+        <v>3.679428037550921</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.06051773379656</v>
+        <v>11.22276786548663</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12.48745725670804</v>
+        <v>16.52845549362621</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.47990479489174</v>
+        <v>19.53040735546759</v>
       </c>
       <c r="C11">
-        <v>21.81792113130087</v>
+        <v>12.12375224632919</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.52479096333771</v>
+        <v>14.20411341232749</v>
       </c>
       <c r="F11">
-        <v>81.12492437008544</v>
+        <v>59.88864208513613</v>
       </c>
       <c r="G11">
-        <v>1.999739289563936</v>
+        <v>3.676023214305274</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.41574191390651</v>
+        <v>11.30939428229841</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.0544733607276</v>
+        <v>16.44155321070623</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.95729987532381</v>
+        <v>19.65677890367034</v>
       </c>
       <c r="C12">
-        <v>22.16781251381343</v>
+        <v>12.23419735323519</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.77436263272282</v>
+        <v>14.24018582576866</v>
       </c>
       <c r="F12">
-        <v>82.22785403173829</v>
+        <v>60.20224918270964</v>
       </c>
       <c r="G12">
-        <v>1.994532002151919</v>
+        <v>3.674755712384335</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.55108477572463</v>
+        <v>11.34208651100623</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.26931913275323</v>
+        <v>16.40975668481488</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.85457304870786</v>
+        <v>19.62958030018935</v>
       </c>
       <c r="C13">
-        <v>22.09249314888879</v>
+        <v>12.21046131342043</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.72063799455402</v>
+        <v>14.23240030698027</v>
       </c>
       <c r="F13">
-        <v>81.99030426425008</v>
+        <v>60.1347866758048</v>
       </c>
       <c r="G13">
-        <v>1.995656366344283</v>
+        <v>3.675027723546517</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.52189364852485</v>
+        <v>11.33505077670496</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.22303032606481</v>
+        <v>16.41655509000752</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.51922222306056</v>
+        <v>19.54081182493101</v>
       </c>
       <c r="C14">
-        <v>21.84672468816893</v>
+        <v>12.13286114135755</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.54533572205094</v>
+        <v>14.20707356966821</v>
       </c>
       <c r="F14">
-        <v>81.21566058947668</v>
+        <v>59.91447773295954</v>
       </c>
       <c r="G14">
-        <v>1.999312147438275</v>
+        <v>3.675918499673255</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.42685800624369</v>
+        <v>11.3120861841836</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.07214193123228</v>
+        <v>16.43891497543713</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.31352869211704</v>
+        <v>19.48638890122211</v>
       </c>
       <c r="C15">
-        <v>21.6960608557821</v>
+        <v>12.08518332644951</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.43787242465501</v>
+        <v>14.19160935269061</v>
       </c>
       <c r="F15">
-        <v>80.74116502141158</v>
+        <v>59.77930637838305</v>
       </c>
       <c r="G15">
-        <v>2.00154337663845</v>
+        <v>3.676466963420905</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.36876422955674</v>
+        <v>11.29800489212791</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>12.97975745462473</v>
+        <v>16.45275600657693</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.12957443391524</v>
+        <v>19.17385774573984</v>
       </c>
       <c r="C16">
-        <v>20.83002374496028</v>
+        <v>11.80981273532644</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.82022862731492</v>
+        <v>14.10375649469969</v>
       </c>
       <c r="F16">
-        <v>78.02011257823709</v>
+        <v>59.00140230400817</v>
       </c>
       <c r="G16">
-        <v>2.014222749626124</v>
+        <v>3.679653615478549</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.03740017886843</v>
+        <v>11.21709163560813</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12.45038013845729</v>
+        <v>16.53428991918427</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.3977145904042</v>
+        <v>18.98166312424408</v>
       </c>
       <c r="C17">
-        <v>20.29562751558039</v>
+        <v>11.63905741252093</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.43919867856925</v>
+        <v>14.05055941544073</v>
       </c>
       <c r="F17">
-        <v>76.34731587367884</v>
+        <v>58.52143315189523</v>
       </c>
       <c r="G17">
-        <v>2.021922149604675</v>
+        <v>3.681647599551373</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.835239697119</v>
+        <v>11.16726725204195</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>12.12510168565218</v>
+        <v>16.58628062280308</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.97440489139636</v>
+        <v>18.8709941696013</v>
       </c>
       <c r="C18">
-        <v>19.98683947654765</v>
+        <v>11.54021149826466</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.21907396245729</v>
+        <v>14.02022373917105</v>
       </c>
       <c r="F18">
-        <v>75.38322890111066</v>
+        <v>58.24443253272241</v>
       </c>
       <c r="G18">
-        <v>2.026327601848399</v>
+        <v>3.682808904724408</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.71928128414768</v>
+        <v>11.13854444457143</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>11.93761384698252</v>
+        <v>16.61690693152116</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.83064503267344</v>
+        <v>18.83350696411084</v>
       </c>
       <c r="C19">
-        <v>19.8820216626387</v>
+        <v>11.50663924925478</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.14436125472931</v>
+        <v>14.00999808220995</v>
       </c>
       <c r="F19">
-        <v>75.05641782268965</v>
+        <v>58.15049159419139</v>
       </c>
       <c r="G19">
-        <v>2.027815779908506</v>
+        <v>3.683204584534593</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.68006661377398</v>
+        <v>11.12880853842236</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>11.87404771680982</v>
+        <v>16.62740038249998</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.47585997628396</v>
+        <v>19.00213646931024</v>
       </c>
       <c r="C20">
-        <v>20.35265577728545</v>
+        <v>11.65730091181448</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.47985603525661</v>
+        <v>14.05619535270436</v>
       </c>
       <c r="F20">
-        <v>76.52557515423368</v>
+        <v>58.57262519148097</v>
       </c>
       <c r="G20">
-        <v>2.021105047030539</v>
+        <v>3.681433845610935</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.85672507941346</v>
+        <v>11.17257796303308</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12.15976480224686</v>
+        <v>16.58067128556079</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.61777929743584</v>
+        <v>19.56689587881089</v>
       </c>
       <c r="C21">
-        <v>21.91893670380525</v>
+        <v>12.15568469786444</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.5968428223556</v>
+        <v>14.21450243717444</v>
       </c>
       <c r="F21">
-        <v>81.44318832936003</v>
+        <v>59.97923525818104</v>
       </c>
       <c r="G21">
-        <v>1.998240073110596</v>
+        <v>3.675656266089883</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.45474694970955</v>
+        <v>11.31883454851372</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.11645197605281</v>
+        <v>16.43231711379763</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.00413962762603</v>
+        <v>19.9339027533002</v>
       </c>
       <c r="C22">
-        <v>22.93629794370869</v>
+        <v>12.47499689898489</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.32251210049303</v>
+        <v>14.32017954230936</v>
       </c>
       <c r="F22">
-        <v>84.65513210641294</v>
+        <v>60.8886326593881</v>
       </c>
       <c r="G22">
-        <v>1.982953210962441</v>
+        <v>3.672007446188867</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.85062174172357</v>
+        <v>11.41376790558821</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.74288047296008</v>
+        <v>16.34184104062199</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.26503075412229</v>
+        <v>19.73826232285494</v>
       </c>
       <c r="C23">
-        <v>22.39353809177883</v>
+        <v>12.30519560472955</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.93537142298687</v>
+        <v>14.26358094868561</v>
       </c>
       <c r="F23">
-        <v>82.9401647871565</v>
+        <v>60.40425019434583</v>
       </c>
       <c r="G23">
-        <v>1.991151166125378</v>
+        <v>3.673943314352403</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.63874982065011</v>
+        <v>11.36316355525212</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.40817529510398</v>
+        <v>16.3895343889765</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.44053847831425</v>
+        <v>18.99288099977051</v>
       </c>
       <c r="C24">
-        <v>20.32687821284887</v>
+        <v>11.649055123566</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.46147820668545</v>
+        <v>14.05364657161607</v>
       </c>
       <c r="F24">
-        <v>76.4449916790802</v>
+        <v>58.54948455408692</v>
       </c>
       <c r="G24">
-        <v>2.021474523218446</v>
+        <v>3.681530437227772</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.84701073028723</v>
+        <v>11.17017723305438</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12.14409515317039</v>
+        <v>16.58320497446592</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.30102331723131</v>
+        <v>18.18481266201361</v>
       </c>
       <c r="C25">
-        <v>18.04134247632994</v>
+        <v>10.91774968888772</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.83323327581523</v>
+        <v>13.83726926136747</v>
       </c>
       <c r="F25">
-        <v>69.3610183310423</v>
+        <v>56.51411443271653</v>
       </c>
       <c r="G25">
-        <v>2.053348487126025</v>
+        <v>3.690266363506812</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.00461902519594</v>
+        <v>10.95956332642939</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>10.76384399086269</v>
+        <v>16.81971290508394</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_240/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_240/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.59209660795975</v>
+        <v>22.87963035532548</v>
       </c>
       <c r="C2">
-        <v>10.36407734381725</v>
+        <v>16.28481098789866</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.68713785086328</v>
+        <v>11.66007526443981</v>
       </c>
       <c r="F2">
-        <v>54.99448763524786</v>
+        <v>64.02514607514107</v>
       </c>
       <c r="G2">
-        <v>3.697181159449026</v>
+        <v>2.076648999980423</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.80274813932115</v>
+        <v>10.3865640260342</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.01738085309923</v>
+        <v>9.714341708389719</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.19496184776007</v>
+        <v>21.158994983789</v>
       </c>
       <c r="C3">
-        <v>9.982430739905219</v>
+        <v>15.03882157923253</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.59135228416763</v>
+        <v>10.86495960707909</v>
       </c>
       <c r="F3">
-        <v>53.9563368386496</v>
+        <v>60.31930110447443</v>
       </c>
       <c r="G3">
-        <v>3.702172325133112</v>
+        <v>2.09254401217534</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.69557174660276</v>
+        <v>9.966644232773721</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.16592048138934</v>
+        <v>8.975148929989752</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.95447055075539</v>
+        <v>20.06036741375145</v>
       </c>
       <c r="C4">
-        <v>9.746123393369515</v>
+        <v>14.24380933808546</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.53554460703709</v>
+        <v>10.36591755515999</v>
       </c>
       <c r="F4">
-        <v>53.31651361752625</v>
+        <v>57.9976376566969</v>
       </c>
       <c r="G4">
-        <v>3.705388615612043</v>
+        <v>2.102410957426756</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.62938246835669</v>
+        <v>9.707807586173306</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.26428446602803</v>
+        <v>8.505554827846423</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.85748143073207</v>
+        <v>19.601718481069</v>
       </c>
       <c r="C5">
-        <v>9.649526498575762</v>
+        <v>13.91197222435795</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.5135670475943</v>
+        <v>10.1597769489687</v>
       </c>
       <c r="F5">
-        <v>53.05544196961425</v>
+        <v>57.03990467855785</v>
       </c>
       <c r="G5">
-        <v>3.706737605244185</v>
+        <v>2.106466050141394</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.60232318111156</v>
+        <v>9.602034368116954</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.30616457580034</v>
+        <v>8.309983473900552</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.84144264560834</v>
+        <v>19.52488985312655</v>
       </c>
       <c r="C6">
-        <v>9.633474600509203</v>
+        <v>13.85638724964999</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.50996409482794</v>
+        <v>10.1253793615675</v>
       </c>
       <c r="F6">
-        <v>53.01207854955774</v>
+        <v>56.88017591046906</v>
       </c>
       <c r="G6">
-        <v>3.706963923966562</v>
+        <v>2.107141658550648</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.59782505100208</v>
+        <v>9.584452156278292</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.31322708296837</v>
+        <v>8.277247971485952</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.95315819380339</v>
+        <v>20.05422666368315</v>
       </c>
       <c r="C7">
-        <v>9.744821596261161</v>
+        <v>14.23936630616562</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.53524510386724</v>
+        <v>10.36314874006849</v>
       </c>
       <c r="F7">
-        <v>53.3129937335879</v>
+        <v>57.98476826664868</v>
       </c>
       <c r="G7">
-        <v>3.705406653139903</v>
+        <v>2.102465498259887</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.62901787558664</v>
+        <v>9.706382326822705</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.26484200961728</v>
+        <v>8.502934636629567</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.45457075420742</v>
+        <v>22.29487213270655</v>
       </c>
       <c r="C8">
-        <v>10.23300881231216</v>
+        <v>15.86120319341176</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.65349307375761</v>
+        <v>11.38811909172283</v>
       </c>
       <c r="F8">
-        <v>54.63718705122275</v>
+        <v>62.75688677974181</v>
       </c>
       <c r="G8">
-        <v>3.698870738104855</v>
+        <v>2.082111961101838</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.76587890841827</v>
+        <v>10.24195088045821</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.06710849821127</v>
+        <v>9.462570261534427</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.45706258157559</v>
+        <v>26.37390441020042</v>
       </c>
       <c r="C9">
-        <v>11.16682406244751</v>
+        <v>18.82121349533807</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.9087626524597</v>
+        <v>13.38851539614805</v>
       </c>
       <c r="F9">
-        <v>57.20360995035947</v>
+        <v>71.76316206470311</v>
       </c>
       <c r="G9">
-        <v>3.687249211059044</v>
+        <v>2.042669652156232</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.03080401934798</v>
+        <v>11.28762342285094</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.73637625318306</v>
+        <v>11.23285143691198</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.19576822495313</v>
+        <v>29.21278731617492</v>
       </c>
       <c r="C10">
-        <v>11.82920862800333</v>
+        <v>20.89082918043027</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.1098617466245</v>
+        <v>14.86358881881801</v>
       </c>
       <c r="F10">
-        <v>59.05603789624417</v>
+        <v>78.21077217517872</v>
       </c>
       <c r="G10">
-        <v>3.679428037550921</v>
+        <v>2.013340654136499</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.22276786548663</v>
+        <v>12.06051773379631</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.52845549362621</v>
+        <v>12.48745725670809</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.53040735546759</v>
+        <v>30.47990479489187</v>
       </c>
       <c r="C11">
-        <v>12.12375224632919</v>
+        <v>21.81792113130095</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.20411341232749</v>
+        <v>15.52479096333809</v>
       </c>
       <c r="F11">
-        <v>59.88864208513613</v>
+        <v>81.12492437008633</v>
       </c>
       <c r="G11">
-        <v>3.676023214305274</v>
+        <v>1.999739289564097</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.30939428229841</v>
+        <v>12.4157419139067</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.44155321070623</v>
+        <v>13.05447336072756</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.65677890367034</v>
+        <v>30.95729987532394</v>
       </c>
       <c r="C12">
-        <v>12.23419735323519</v>
+        <v>22.16781251381341</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.24018582576866</v>
+        <v>15.77436263272309</v>
       </c>
       <c r="F12">
-        <v>60.20224918270964</v>
+        <v>82.22785403173896</v>
       </c>
       <c r="G12">
-        <v>3.674755712384335</v>
+        <v>1.994532002152015</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.34208651100623</v>
+        <v>12.55108477572474</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.40975668481488</v>
+        <v>13.26931913275321</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.62958030018935</v>
+        <v>30.85457304870782</v>
       </c>
       <c r="C13">
-        <v>12.21046131342043</v>
+        <v>22.09249314888881</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.23240030698027</v>
+        <v>15.72063799455429</v>
       </c>
       <c r="F13">
-        <v>60.1347866758048</v>
+        <v>81.9903042642505</v>
       </c>
       <c r="G13">
-        <v>3.675027723546517</v>
+        <v>1.995656366344199</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.33505077670496</v>
+        <v>12.52189364852496</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.41655509000752</v>
+        <v>13.22303032606466</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.54081182493101</v>
+        <v>30.5192222230604</v>
       </c>
       <c r="C14">
-        <v>12.13286114135755</v>
+        <v>21.8467246881692</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.20707356966821</v>
+        <v>15.54533572205057</v>
       </c>
       <c r="F14">
-        <v>59.91447773295954</v>
+        <v>81.21566058947619</v>
       </c>
       <c r="G14">
-        <v>3.675918499673255</v>
+        <v>1.999312147438635</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.3120861841836</v>
+        <v>12.42685800624355</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.43891497543713</v>
+        <v>13.07214193123241</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.48638890122211</v>
+        <v>30.31352869211719</v>
       </c>
       <c r="C15">
-        <v>12.08518332644951</v>
+        <v>21.69606085578203</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.19160935269061</v>
+        <v>15.43787242465485</v>
       </c>
       <c r="F15">
-        <v>59.77930637838305</v>
+        <v>80.74116502141135</v>
       </c>
       <c r="G15">
-        <v>3.676466963420905</v>
+        <v>2.001543376638421</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.29800489212791</v>
+        <v>12.36876422955668</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.45275600657693</v>
+        <v>12.97975745462478</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.17385774573984</v>
+        <v>29.12957443391536</v>
       </c>
       <c r="C16">
-        <v>11.80981273532644</v>
+        <v>20.83002374496018</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.10375649469969</v>
+        <v>14.8202286273151</v>
       </c>
       <c r="F16">
-        <v>59.00140230400817</v>
+        <v>78.02011257823737</v>
       </c>
       <c r="G16">
-        <v>3.679653615478549</v>
+        <v>2.014222749625888</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.21709163560813</v>
+        <v>12.03740017886853</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.53428991918427</v>
+        <v>12.45038013845726</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.98166312424408</v>
+        <v>28.39771459040395</v>
       </c>
       <c r="C17">
-        <v>11.63905741252093</v>
+        <v>20.29562751558054</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.05055941544073</v>
+        <v>14.43919867856919</v>
       </c>
       <c r="F17">
-        <v>58.52143315189523</v>
+        <v>76.34731587367878</v>
       </c>
       <c r="G17">
-        <v>3.681647599551373</v>
+        <v>2.021922149604675</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.16726725204195</v>
+        <v>11.83523969711898</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.58628062280308</v>
+        <v>12.1251016856522</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.8709941696013</v>
+        <v>27.97440489139646</v>
       </c>
       <c r="C18">
-        <v>11.54021149826466</v>
+        <v>19.98683947654778</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.02022373917105</v>
+        <v>14.21907396245759</v>
       </c>
       <c r="F18">
-        <v>58.24443253272241</v>
+        <v>75.38322890111122</v>
       </c>
       <c r="G18">
-        <v>3.682808904724408</v>
+        <v>2.026327601848521</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.13854444457143</v>
+        <v>11.7192812841478</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.61690693152116</v>
+        <v>11.93761384698249</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.83350696411084</v>
+        <v>27.83064503267336</v>
       </c>
       <c r="C19">
-        <v>11.50663924925478</v>
+        <v>19.88202166263857</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.00999808220995</v>
+        <v>14.1443612547292</v>
       </c>
       <c r="F19">
-        <v>58.15049159419139</v>
+        <v>75.05641782268955</v>
       </c>
       <c r="G19">
-        <v>3.683204584534593</v>
+        <v>2.027815779908124</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.12880853842236</v>
+        <v>11.68006661377396</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.62740038249998</v>
+        <v>11.87404771680987</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.00213646931024</v>
+        <v>28.47585997628382</v>
       </c>
       <c r="C20">
-        <v>11.65730091181448</v>
+        <v>20.35265577728558</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.05619535270436</v>
+        <v>14.47985603525659</v>
       </c>
       <c r="F20">
-        <v>58.57262519148097</v>
+        <v>76.52557515423348</v>
       </c>
       <c r="G20">
-        <v>3.681433845610935</v>
+        <v>2.021105047030687</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.17257796303308</v>
+        <v>11.85672507941341</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.58067128556079</v>
+        <v>12.15976480224673</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.56689587881089</v>
+        <v>30.61777929743568</v>
       </c>
       <c r="C21">
-        <v>12.15568469786444</v>
+        <v>21.91893670380542</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.21450243717444</v>
+        <v>15.59684282235558</v>
       </c>
       <c r="F21">
-        <v>59.97923525818104</v>
+        <v>81.44318832935991</v>
       </c>
       <c r="G21">
-        <v>3.675656266089883</v>
+        <v>1.998240073110596</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.31883454851372</v>
+        <v>12.45474694970955</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.43231711379763</v>
+        <v>13.11645197605281</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.9339027533002</v>
+        <v>32.0041396276261</v>
       </c>
       <c r="C22">
-        <v>12.47499689898489</v>
+        <v>22.93629794370867</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.32017954230936</v>
+        <v>16.32251210049282</v>
       </c>
       <c r="F22">
-        <v>60.8886326593881</v>
+        <v>84.65513210641265</v>
       </c>
       <c r="G22">
-        <v>3.672007446188867</v>
+        <v>1.982953210962416</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.41376790558821</v>
+        <v>12.85062174172347</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.34184104062199</v>
+        <v>13.7428804729601</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.73826232285494</v>
+        <v>31.26503075412228</v>
       </c>
       <c r="C23">
-        <v>12.30519560472955</v>
+        <v>22.39353809177894</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.26358094868561</v>
+        <v>15.93537142298671</v>
       </c>
       <c r="F23">
-        <v>60.40425019434583</v>
+        <v>82.94016478715621</v>
       </c>
       <c r="G23">
-        <v>3.673943314352403</v>
+        <v>1.991151166125515</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.36316355525212</v>
+        <v>12.63874982065005</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.3895343889765</v>
+        <v>13.40817529510402</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.99288099977051</v>
+        <v>28.4405384783142</v>
       </c>
       <c r="C24">
-        <v>11.649055123566</v>
+        <v>20.3268782128488</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.05364657161607</v>
+        <v>14.46147820668563</v>
       </c>
       <c r="F24">
-        <v>58.54948455408692</v>
+        <v>76.44499167908037</v>
       </c>
       <c r="G24">
-        <v>3.681530437227772</v>
+        <v>2.021474523218441</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.17017723305438</v>
+        <v>11.84701073028725</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.58320497446592</v>
+        <v>12.14409515317038</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.18481266201361</v>
+        <v>25.3010233172315</v>
       </c>
       <c r="C25">
-        <v>10.91774968888772</v>
+        <v>18.04134247632992</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.83726926136747</v>
+        <v>12.83323327581538</v>
       </c>
       <c r="F25">
-        <v>56.51411443271653</v>
+        <v>69.3610183310425</v>
       </c>
       <c r="G25">
-        <v>3.690266363506812</v>
+        <v>2.053348487125679</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.95956332642939</v>
+        <v>11.00461902519591</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.81971290508394</v>
+        <v>10.76384399086273</v>
       </c>
       <c r="N25">
         <v>0</v>
